--- a/CH-106 Custom Rank.xlsx
+++ b/CH-106 Custom Rank.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FCC185E-34D4-4315-8725-897EEA54CD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FD0F82-FB75-4A72-B4B1-5ADC488FDAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
   <si>
     <t>Result</t>
   </si>
@@ -91,6 +114,9 @@
   <si>
     <t>Rank</t>
   </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7235753219874775040/</t>
+  </si>
 </sst>
 </file>
 
@@ -99,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:m"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +160,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -337,10 +371,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -397,8 +432,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1002,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:M17"/>
+  <dimension ref="C1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1061,7 @@
     <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
@@ -1035,7 +1074,7 @@
       </c>
       <c r="M1" s="21"/>
     </row>
-    <row r="2" spans="3:13" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:16" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
@@ -1057,8 +1096,11 @@
       <c r="M2" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="3:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
@@ -1082,7 +1124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1106,7 +1148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
@@ -1130,7 +1172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
@@ -1154,7 +1196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
@@ -1177,7 +1219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
@@ -1200,7 +1242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="3:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
         <v>2</v>
       </c>
@@ -1223,7 +1265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
         <v>5</v>
       </c>
@@ -1247,7 +1289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="3:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
@@ -1270,7 +1312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
@@ -1293,16 +1335,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="L13"/>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="L14"/>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="L15"/>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="L16"/>
     </row>
     <row r="17" spans="12:12" x14ac:dyDescent="0.25">
@@ -1317,8 +1359,478 @@
     <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{21FAD463-D5C1-4927-AAD0-7A169FCC6877}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6C9A49-AEBD-41CD-8B20-F3AC34CC554D}">
+  <dimension ref="B1:P28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.19921875" customWidth="1"/>
+    <col min="12" max="12" width="5.19921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="L1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="21"/>
+    </row>
+    <row r="2" spans="3:16" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10">
+        <v>18</v>
+      </c>
+      <c r="E3" s="10">
+        <v>19</v>
+      </c>
+      <c r="F3" s="10">
+        <v>16</v>
+      </c>
+      <c r="G3" s="11">
+        <v>53</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="L3" s="12">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="10">
+        <v>40</v>
+      </c>
+      <c r="E4" s="10">
+        <v>27</v>
+      </c>
+      <c r="F4" s="10">
+        <v>24</v>
+      </c>
+      <c r="G4" s="11">
+        <v>91</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="L4" s="12">
+        <v>2</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10">
+        <v>16</v>
+      </c>
+      <c r="E5" s="10">
+        <v>26</v>
+      </c>
+      <c r="F5" s="10">
+        <v>22</v>
+      </c>
+      <c r="G5" s="11">
+        <v>64</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="L5" s="12">
+        <v>3</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="10">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10">
+        <v>13</v>
+      </c>
+      <c r="F6" s="10">
+        <v>8</v>
+      </c>
+      <c r="G6" s="11">
+        <v>33</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="L6" s="12">
+        <v>4</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="10">
+        <v>14</v>
+      </c>
+      <c r="E7" s="10">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10">
+        <v>29</v>
+      </c>
+      <c r="G7" s="11">
+        <v>65</v>
+      </c>
+      <c r="L7" s="12">
+        <v>5</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10">
+        <v>13</v>
+      </c>
+      <c r="F8" s="10">
+        <v>15</v>
+      </c>
+      <c r="G8" s="11">
+        <v>40</v>
+      </c>
+      <c r="L8" s="12">
+        <v>6</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10">
+        <v>20</v>
+      </c>
+      <c r="E9" s="10">
+        <v>12</v>
+      </c>
+      <c r="F9" s="10">
+        <v>13</v>
+      </c>
+      <c r="G9" s="11">
+        <v>45</v>
+      </c>
+      <c r="L9" s="12">
+        <v>7</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="10">
+        <v>15</v>
+      </c>
+      <c r="E10" s="10">
+        <v>7</v>
+      </c>
+      <c r="F10" s="10">
+        <v>12</v>
+      </c>
+      <c r="G10" s="11">
+        <v>34</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="L10" s="12">
+        <v>8</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="10">
+        <v>13</v>
+      </c>
+      <c r="E11" s="10">
+        <v>9</v>
+      </c>
+      <c r="F11" s="10">
+        <v>10</v>
+      </c>
+      <c r="G11" s="11">
+        <v>32</v>
+      </c>
+      <c r="L11" s="12">
+        <v>9</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="10">
+        <v>40</v>
+      </c>
+      <c r="E12" s="10">
+        <v>44</v>
+      </c>
+      <c r="F12" s="10">
+        <v>42</v>
+      </c>
+      <c r="G12" s="11">
+        <v>126</v>
+      </c>
+      <c r="L12" s="12">
+        <v>10</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L17"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" cm="1">
+        <f t="array" ref="B19:B28">_xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(C19)))</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="str" cm="1">
+        <f t="array" ref="C19:C28">_xlfn.TAKE(_xlfn._xlws.SORT(C3:G12,{2,3,4},{-1,-1,-1}),,1)</f>
+        <v>USA</v>
+      </c>
+      <c r="D19" s="1" t="b" cm="1">
+        <f t="array" ref="D19:E28">B19:C28=L3:M12</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <v>China</v>
+      </c>
+      <c r="D20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <v>Japan</v>
+      </c>
+      <c r="D21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="D22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <v>France</v>
+      </c>
+      <c r="D23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <v>Netherlands</v>
+      </c>
+      <c r="D24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <v>Great Britain</v>
+      </c>
+      <c r="D25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <v>Republic of Korea</v>
+      </c>
+      <c r="D26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <v>italy</v>
+      </c>
+      <c r="D27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="D28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{9E0E348F-EEFB-4090-BBD9-AC6FB3DDD738}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/CH-106 Custom Rank.xlsx
+++ b/CH-106 Custom Rank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FD0F82-FB75-4A72-B4B1-5ADC488FDAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13720C4-5A6B-46EB-93B2-3264B83A7587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1370,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6C9A49-AEBD-41CD-8B20-F3AC34CC554D}">
-  <dimension ref="B1:P28"/>
+  <dimension ref="B1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1695,6 +1695,16 @@
       <c r="E19" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I19" s="13" t="str" cm="1">
+        <f t="array" ref="I19:J29">_xlfn.LET(
+_xlpm.d,_xlfn.TAKE(_xlfn._xlws.SORT(C3:G12,{2,3,4},{-1,-1,-1}),,1),
+_xlfn.VSTACK(L2:M2,_xlfn.HSTACK(_xlfn.SEQUENCE(ROWS(_xlpm.d)),_xlpm.d))
+)</f>
+        <v>Rank</v>
+      </c>
+      <c r="J19" s="13" t="str">
+        <v>Country</v>
+      </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
@@ -1709,6 +1719,12 @@
       <c r="E20" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I20" s="12">
+        <v>1</v>
+      </c>
+      <c r="J20" s="8" t="str">
+        <v>USA</v>
+      </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
@@ -1723,6 +1739,12 @@
       <c r="E21" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I21" s="12">
+        <v>2</v>
+      </c>
+      <c r="J21" s="8" t="str">
+        <v>China</v>
+      </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
@@ -1737,6 +1759,12 @@
       <c r="E22" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I22" s="12">
+        <v>3</v>
+      </c>
+      <c r="J22" s="8" t="str">
+        <v>Japan</v>
+      </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
@@ -1751,6 +1779,12 @@
       <c r="E23" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I23" s="12">
+        <v>4</v>
+      </c>
+      <c r="J23" s="8" t="str">
+        <v>Australia</v>
+      </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
@@ -1765,6 +1799,12 @@
       <c r="E24" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I24" s="12">
+        <v>5</v>
+      </c>
+      <c r="J24" s="8" t="str">
+        <v>France</v>
+      </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
@@ -1779,6 +1819,12 @@
       <c r="E25" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I25" s="12">
+        <v>6</v>
+      </c>
+      <c r="J25" s="8" t="str">
+        <v>Netherlands</v>
+      </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
@@ -1793,6 +1839,12 @@
       <c r="E26" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I26" s="12">
+        <v>7</v>
+      </c>
+      <c r="J26" s="8" t="str">
+        <v>Great Britain</v>
+      </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
@@ -1807,6 +1859,12 @@
       <c r="E27" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I27" s="12">
+        <v>8</v>
+      </c>
+      <c r="J27" s="8" t="str">
+        <v>Republic of Korea</v>
+      </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
@@ -1820,6 +1878,20 @@
       </c>
       <c r="E28" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="I28" s="12">
+        <v>9</v>
+      </c>
+      <c r="J28" s="8" t="str">
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I29" s="12">
+        <v>10</v>
+      </c>
+      <c r="J29" s="8" t="str">
+        <v>Germany</v>
       </c>
     </row>
   </sheetData>
